--- a/noc_project/upload/NOC Web parameter v3.xlsx
+++ b/noc_project/upload/NOC Web parameter v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Desktop\pplus\pythonlogin\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat03\Documents\noc_noc_project\noc_project\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B09251-7E84-4E47-9742-6EC9B9BB93C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB7A98-9A9B-4778-9EA4-21A703388967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>Project Name</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>เทส เทส</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>DEV.</t>
@@ -874,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -884,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -967,11 +964,6 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
@@ -1033,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E697B-494D-4CFB-A0D3-56E0E3C6F8AD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1141,16 +1133,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1254,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C4538D-A9C6-4419-A534-3D1C2D6860D7}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1476,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42071DE7-271E-433C-BF96-D6B847DE1ABE}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1487,7 @@
     <col min="11" max="11" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
@@ -1529,8 +1521,11 @@
       <c r="K1" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="str">
         <f>Equipment!B2</f>
         <v>FGT60FTK20054815</v>
@@ -1565,8 +1560,11 @@
       <c r="K2" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="str">
         <f>Equipment!B3</f>
         <v>FGT60FTK20036867</v>
@@ -1601,8 +1599,11 @@
       <c r="K3" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Equipment!B4</f>
         <v>S108EN5920004706</v>
@@ -1636,6 +1637,9 @@
       </c>
       <c r="K4" s="16" t="s">
         <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
